--- a/Perceptron/result.xlsx
+++ b/Perceptron/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Machine-learning\Perceptron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD4F63-34F6-43FF-B4F2-ACF2A75DBFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF88876-C200-49DD-972B-199BF83281DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="5760" windowWidth="19080" windowHeight="10128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43410" yWindow="5250" windowWidth="19080" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>TrainError</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,73 @@
   </si>
   <si>
     <t>[-0.56</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Error:</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>w:</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Algorithm?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>Standard,</t>
+  </si>
+  <si>
+    <t>Voted,</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>[-210.88</t>
+  </si>
+  <si>
+    <t>[-428.581</t>
+  </si>
+  <si>
+    <t>[-687.989</t>
+  </si>
+  <si>
+    <t>[-895.741</t>
+  </si>
+  <si>
+    <t>[-995.916</t>
+  </si>
+  <si>
+    <t>[-1177.304</t>
+  </si>
+  <si>
+    <t>[-1373.022</t>
+  </si>
+  <si>
+    <t>[-1534.762</t>
+  </si>
+  <si>
+    <t>[-1749.795</t>
+  </si>
+  <si>
+    <t>[-1948.838</t>
+  </si>
+  <si>
+    <t>Com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -378,7 +446,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,202 +499,694 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.96</v>
+        <v>3.1E-2</v>
       </c>
       <c r="B3">
-        <v>0.97</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.89</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>0.89</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>0.94</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F3">
-        <v>0.91</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.98</v>
+        <v>1.9E-2</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E4">
-        <v>0.94</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.97</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="B5">
-        <v>0.97</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E5">
-        <v>0.95</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F5">
-        <v>0.93</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.98</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B6">
-        <v>0.98</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>0.98</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E6">
-        <v>0.95</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>0.93</v>
+        <v>0.03</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.98</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B7">
-        <v>0.98</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C7">
-        <v>0.98</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>0.98</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>0.95</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F7">
-        <v>0.93</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.98</v>
+        <v>3.1E-2</v>
       </c>
       <c r="B8">
-        <v>0.98</v>
+        <v>0.03</v>
       </c>
       <c r="C8">
-        <v>0.99</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>0.98</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.96</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>0.93</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.98</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="B9">
-        <v>0.98</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C9">
-        <v>0.98</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D9">
-        <v>0.98</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>0.96</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F9">
-        <v>0.94</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.98</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="B10">
-        <v>0.99</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C10">
-        <v>0.97</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>0.97</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>0.94</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.98</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="B11">
-        <v>0.98</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.98</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E11">
-        <v>0.96</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>0.94</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.98</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>0.98</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C12">
-        <v>0.98</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.98</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E12">
-        <v>0.96</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F12">
-        <v>0.94</v>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5C2881-14B8-4311-BC5A-EB48F23CE2AB}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>-139.45500000000001</v>
+      </c>
+      <c r="F1">
+        <v>-117.7</v>
+      </c>
+      <c r="G1">
+        <v>-40.353999999999999</v>
+      </c>
+      <c r="H1">
+        <v>49.2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>-261.36599999999999</v>
+      </c>
+      <c r="F2">
+        <v>-224.12899999999999</v>
+      </c>
+      <c r="G2">
+        <v>-64.52</v>
+      </c>
+      <c r="H2">
+        <v>168</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>-426.21499999999997</v>
+      </c>
+      <c r="F3">
+        <v>-373.60700000000003</v>
+      </c>
+      <c r="G3">
+        <v>-109.768</v>
+      </c>
+      <c r="H3">
+        <v>354.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>-586.98</v>
+      </c>
+      <c r="F4">
+        <v>-514.02300000000002</v>
+      </c>
+      <c r="G4">
+        <v>-137.79499999999999</v>
+      </c>
+      <c r="H4">
+        <v>516.4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>-651.73</v>
+      </c>
+      <c r="F5">
+        <v>-586.04</v>
+      </c>
+      <c r="G5">
+        <v>-148.75</v>
+      </c>
+      <c r="H5">
+        <v>602.79999999999995</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>-774.18200000000002</v>
+      </c>
+      <c r="F6">
+        <v>-706.52</v>
+      </c>
+      <c r="G6">
+        <v>-172.91800000000001</v>
+      </c>
+      <c r="H6">
+        <v>761.4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>-902.38400000000001</v>
+      </c>
+      <c r="F7">
+        <v>-839.08699999999999</v>
+      </c>
+      <c r="G7">
+        <v>-187.39400000000001</v>
+      </c>
+      <c r="H7">
+        <v>929</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>-1008.371</v>
+      </c>
+      <c r="F8">
+        <v>-943.87199999999996</v>
+      </c>
+      <c r="G8">
+        <v>-201.124</v>
+      </c>
+      <c r="H8">
+        <v>1071.2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>-1146.0350000000001</v>
+      </c>
+      <c r="F9">
+        <v>-1089.7560000000001</v>
+      </c>
+      <c r="G9">
+        <v>-222.72499999999999</v>
+      </c>
+      <c r="H9">
+        <v>1252.8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>-1282.2</v>
+      </c>
+      <c r="F10">
+        <v>-1221.7180000000001</v>
+      </c>
+      <c r="G10">
+        <v>-260.15899999999999</v>
+      </c>
+      <c r="H10">
+        <v>1427.6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
